--- a/excel/PEDIDO YA CON VENDEDOR.xlsx
+++ b/excel/PEDIDO YA CON VENDEDOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Campaña WhatsApp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C76A195-8DE4-4117-9BB7-BF9BDD7E9C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3D2724-6F86-42CA-9A0D-454F017BC1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,10 @@
     <t>AX100</t>
   </si>
   <si>
-    <t>GUSTAVO GOMEZ VILLAFANE</t>
-  </si>
-  <si>
     <t>VENDEDOR</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -342,7 +342,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -372,7 +372,7 @@
         <v>5491161405589</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>

--- a/excel/PEDIDO YA CON VENDEDOR.xlsx
+++ b/excel/PEDIDO YA CON VENDEDOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Campaña WhatsApp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3D2724-6F86-42CA-9A0D-454F017BC1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D678B06-1258-4B07-B9B7-5AC016FC25A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <t>VENDEDOR</t>
   </si>
   <si>
-    <t>GUSTAVO</t>
+    <t>GUSTAVO GLUNZ</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -369,7 +369,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>5491161405589</v>
+        <v>5491159911742</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -378,7 +378,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>5491161405589</v>
+        <v>5491159911742</v>
       </c>
     </row>
   </sheetData>

--- a/excel/PEDIDO YA CON VENDEDOR.xlsx
+++ b/excel/PEDIDO YA CON VENDEDOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Campaña WhatsApp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D678B06-1258-4B07-B9B7-5AC016FC25A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA54B2D-0550-421B-9579-46A6E6EEA5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <t>VENDEDOR</t>
   </si>
   <si>
-    <t>GUSTAVO GLUNZ</t>
+    <t>GUSTAVO</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -369,7 +369,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>5491159911742</v>
+        <v>5491161405589</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -378,7 +378,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>5491159911742</v>
+        <v>5491161405589</v>
       </c>
     </row>
   </sheetData>

--- a/excel/PEDIDO YA CON VENDEDOR.xlsx
+++ b/excel/PEDIDO YA CON VENDEDOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Campaña WhatsApp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA54B2D-0550-421B-9579-46A6E6EEA5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0D3A5C-9C4F-4344-8BC0-5B27D3540D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <t>VENDEDOR</t>
   </si>
   <si>
-    <t>GUSTAVO</t>
+    <t>LUCIA</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -369,7 +369,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>5491161405589</v>
+        <v>5491169779582</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>

--- a/excel/PEDIDO YA CON VENDEDOR.xlsx
+++ b/excel/PEDIDO YA CON VENDEDOR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Campaña WhatsApp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0D3A5C-9C4F-4344-8BC0-5B27D3540D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031FD7A-E670-44C3-AB32-65FFFB3CF075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,14 +37,14 @@
     <t>VENDEDOR</t>
   </si>
   <si>
-    <t>LUCIA</t>
+    <t>JOSELIN SIERRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -68,6 +68,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -96,11 +102,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,12 +331,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
     <col min="2" max="2" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -368,20 +378,21 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>5491169779582</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4">
+        <v>5491159790625</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
-        <v>5491161405589</v>
+      <c r="D2" s="4">
+        <v>5491159911742</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/PEDIDO YA CON VENDEDOR.xlsx
+++ b/excel/PEDIDO YA CON VENDEDOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Campaña WhatsApp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031FD7A-E670-44C3-AB32-65FFFB3CF075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9E035A-75E2-4289-BCE2-8E8BFFCA6209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>TELEFONO</t>
   </si>
@@ -37,7 +37,10 @@
     <t>VENDEDOR</t>
   </si>
   <si>
-    <t>JOSELIN SIERRA</t>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>PILAR</t>
   </si>
 </sst>
 </file>
@@ -327,11 +330,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -379,7 +382,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>5491159790625</v>
+        <v>5491161405589</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -388,7 +391,21 @@
         <v>3</v>
       </c>
       <c r="D2" s="4">
-        <v>5491159911742</v>
+        <v>5491161405589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>5491161127436</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5491161405589</v>
       </c>
     </row>
   </sheetData>

--- a/excel/PEDIDO YA CON VENDEDOR.xlsx
+++ b/excel/PEDIDO YA CON VENDEDOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Campaña WhatsApp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9E035A-75E2-4289-BCE2-8E8BFFCA6209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C153DCA9-48DF-431D-8750-E1DD7486FBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>TELEFONO</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>PILAR</t>
   </si>
 </sst>
 </file>
@@ -334,7 +331,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -395,18 +392,8 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>5491161127436</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>5491161405589</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/PEDIDO YA CON VENDEDOR.xlsx
+++ b/excel/PEDIDO YA CON VENDEDOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Campaña WhatsApp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C153DCA9-48DF-431D-8750-E1DD7486FBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63468EB8-F0FB-4A10-8023-77E3A39A38B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <t>VENDEDOR</t>
   </si>
   <si>
-    <t>GUSTAVO</t>
+    <t>MIRELA</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -379,7 +379,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>5491161405589</v>
+        <v>5491165631702</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
